--- a/Расписания/Готовые расписания/Витебская (пов. в част. сектор).xlsx
+++ b/Расписания/Готовые расписания/Витебская (пов. в част. сектор).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>Витебская (пов. в част. сектор)</t>
   </si>
@@ -53,13 +53,37 @@
   </si>
   <si>
     <t>(до кл. Вост.)</t>
+  </si>
+  <si>
+    <t>от Труда</t>
+  </si>
+  <si>
+    <t>от КЗТШ</t>
+  </si>
+  <si>
+    <t>от Рокоссовского (АЗС)</t>
+  </si>
+  <si>
+    <t>№ 1 Труда-КЗТШ</t>
+  </si>
+  <si>
+    <t>№ 1КЗТШ-Труда</t>
+  </si>
+  <si>
+    <t>№ 6 Рокоссовского-Воинская часть</t>
+  </si>
+  <si>
+    <t>от Воинской части</t>
+  </si>
+  <si>
+    <t>№ 6 Воинская часть-Рокоссовского</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,13 +91,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -100,9 +155,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -396,21 +480,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="150.15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -497,380 +581,548 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="Y1" sqref="Y1:AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="5.625" customWidth="1"/>
-    <col min="9" max="14" width="5.625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
+    <col min="2" max="6" width="5.125" style="8" customWidth="1"/>
+    <col min="7" max="8" width="4.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="1.625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="5.125" style="5" customWidth="1"/>
+    <col min="11" max="16" width="5.125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="1.625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="5.125" style="5" customWidth="1"/>
+    <col min="19" max="23" width="5.125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="1.625" style="16" customWidth="1"/>
+    <col min="25" max="25" width="5.125" style="5" customWidth="1"/>
+    <col min="26" max="31" width="5.125" style="8" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="150.15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="K1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="R1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="Y1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+    </row>
+    <row r="2" spans="1:31" s="11" customFormat="1" ht="139.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="Q2" s="17"/>
+      <c r="R2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="12">
         <v>0.52430555555555558</v>
       </c>
-      <c r="B3" s="2">
-        <f>A3+1/1440</f>
+      <c r="C3" s="12">
+        <f>B3+1/1440</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:E3" si="0">B3+1/1440</f>
+      <c r="D3" s="12">
+        <f t="shared" ref="D3:F3" si="0">C3+1/1440</f>
         <v>0.52569444444444446</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="12">
         <f t="shared" si="0"/>
         <v>0.52638888888888891</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="12">
         <f t="shared" si="0"/>
         <v>0.52708333333333335</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="I3" s="2">
+      <c r="H3" s="12"/>
+      <c r="J3" s="19">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="K3" s="12">
         <v>0.30624999999999997</v>
       </c>
-      <c r="J3" s="2">
-        <f>I3+1/1440</f>
+      <c r="L3" s="12">
+        <f>K3+1/1440</f>
         <v>0.30694444444444441</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:N3" si="1">J3+1/1440</f>
+      <c r="M3" s="12">
+        <f t="shared" ref="M3:P3" si="1">L3+1/1440</f>
         <v>0.30763888888888885</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="12">
         <f t="shared" si="1"/>
         <v>0.30833333333333329</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="12">
         <f t="shared" si="1"/>
         <v>0.30902777777777773</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="12">
         <f t="shared" si="1"/>
         <v>0.30972222222222218</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0.56597222222222199</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" ref="B4:E4" si="2">A4+1/1440</f>
-        <v>0.56666666666666643</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="R3" s="13">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="T3" s="12">
+        <f>S3+1/1440</f>
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="U3" s="12">
+        <f t="shared" ref="U3:W3" si="2">T3+1/1440</f>
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="V3" s="12">
         <f t="shared" si="2"/>
-        <v>0.56736111111111087</v>
-      </c>
-      <c r="D4" s="2">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="W3" s="12">
         <f t="shared" si="2"/>
-        <v>0.56805555555555531</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.56874999999999976</v>
-      </c>
-      <c r="I4" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="AA3" s="12">
+        <f>Z3+1/1440</f>
+        <v>0.61458333333333326</v>
+      </c>
+      <c r="AB3" s="12">
+        <f t="shared" ref="AB3:AE3" si="3">AA3+1/1440</f>
+        <v>0.6152777777777777</v>
+      </c>
+      <c r="AC3" s="12">
+        <f t="shared" si="3"/>
+        <v>0.61597222222222214</v>
+      </c>
+      <c r="AD3" s="12">
+        <f t="shared" si="3"/>
+        <v>0.61666666666666659</v>
+      </c>
+      <c r="AE3" s="12">
+        <f t="shared" si="3"/>
+        <v>0.61736111111111103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" ref="C4:F4" si="4">B4+1/1440</f>
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" si="4"/>
+        <v>0.57222222222222219</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="4"/>
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="4"/>
+        <v>0.57361111111111107</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="K4" s="12">
         <v>0.32013888888888892</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:N4" si="3">I4+1/1440</f>
+      <c r="L4" s="12">
+        <f t="shared" ref="L4:P4" si="5">K4+1/1440</f>
         <v>0.32083333333333336</v>
       </c>
-      <c r="K4" s="2">
-        <f t="shared" si="3"/>
+      <c r="M4" s="12">
+        <f t="shared" si="5"/>
         <v>0.3215277777777778</v>
       </c>
-      <c r="L4" s="2">
-        <f t="shared" si="3"/>
+      <c r="N4" s="12">
+        <f t="shared" si="5"/>
         <v>0.32222222222222224</v>
       </c>
-      <c r="M4" s="2">
-        <f t="shared" si="3"/>
+      <c r="O4" s="12">
+        <f t="shared" si="5"/>
         <v>0.32291666666666669</v>
       </c>
-      <c r="N4" s="2">
-        <f t="shared" si="3"/>
+      <c r="P4" s="12">
+        <f t="shared" si="5"/>
         <v>0.32361111111111113</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0.60763888888888895</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" ref="B5:E5" si="4">A5+1/1440</f>
-        <v>0.60833333333333339</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.60902777777777783</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.60972222222222228</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.61041666666666672</v>
-      </c>
-      <c r="I5" s="2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" ref="C5:F5" si="6">B5+1/1440</f>
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="6"/>
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="6"/>
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="6"/>
+        <v>0.63611111111111107</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="K5" s="12">
         <v>0.51111111111111118</v>
       </c>
-      <c r="J5" s="2">
-        <f t="shared" ref="J5:N5" si="5">I5+1/1440</f>
+      <c r="L5" s="12">
+        <f t="shared" ref="L5:P5" si="7">K5+1/1440</f>
         <v>0.51180555555555562</v>
       </c>
-      <c r="K5" s="2">
-        <f t="shared" si="5"/>
+      <c r="M5" s="12">
+        <f t="shared" si="7"/>
         <v>0.51250000000000007</v>
       </c>
-      <c r="L5" s="2">
-        <f t="shared" si="5"/>
+      <c r="N5" s="12">
+        <f t="shared" si="7"/>
         <v>0.51319444444444451</v>
       </c>
-      <c r="M5" s="2">
-        <f t="shared" si="5"/>
+      <c r="O5" s="12">
+        <f t="shared" si="7"/>
         <v>0.51388888888888895</v>
       </c>
-      <c r="N5" s="2">
-        <f t="shared" si="5"/>
+      <c r="P5" s="12">
+        <f t="shared" si="7"/>
         <v>0.51458333333333339</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0.64930555555555602</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" ref="B6:E6" si="6">A6+1/1440</f>
-        <v>0.65000000000000047</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="6"/>
-        <v>0.65069444444444491</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="6"/>
-        <v>0.65138888888888935</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="6"/>
-        <v>0.65208333333333379</v>
-      </c>
-      <c r="I6" s="2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.72430555555555554</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" ref="C6:F6" si="8">B6+1/1440</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="8"/>
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="8"/>
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="8"/>
+        <v>0.7270833333333333</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="K6" s="12">
         <v>0.54583333333333328</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" ref="J6:N6" si="7">I6+1/1440</f>
+      <c r="L6" s="12">
+        <f t="shared" ref="L6:P6" si="9">K6+1/1440</f>
         <v>0.54652777777777772</v>
       </c>
-      <c r="K6" s="2">
-        <f t="shared" si="7"/>
+      <c r="M6" s="12">
+        <f t="shared" si="9"/>
         <v>0.54722222222222217</v>
       </c>
-      <c r="L6" s="2">
-        <f t="shared" si="7"/>
+      <c r="N6" s="12">
+        <f t="shared" si="9"/>
         <v>0.54791666666666661</v>
       </c>
-      <c r="M6" s="2">
-        <f t="shared" si="7"/>
+      <c r="O6" s="12">
+        <f t="shared" si="9"/>
         <v>0.54861111111111105</v>
       </c>
-      <c r="N6" s="2">
-        <f t="shared" si="7"/>
+      <c r="P6" s="12">
+        <f t="shared" si="9"/>
         <v>0.54930555555555549</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>0.69097222222222199</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" ref="B7:E7" si="8">A7+1/1440</f>
-        <v>0.69166666666666643</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="8"/>
-        <v>0.69236111111111087</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="8"/>
-        <v>0.69305555555555531</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="8"/>
-        <v>0.69374999999999976</v>
-      </c>
-      <c r="I7" s="2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" ref="C7:F7" si="10">B7+1/1440</f>
+        <v>0.80069444444444438</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="10"/>
+        <v>0.80138888888888882</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="10"/>
+        <v>0.80208333333333326</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="10"/>
+        <v>0.8027777777777777</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="K7" s="12">
         <v>0.8618055555555556</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" ref="J7:N7" si="9">I7+1/1440</f>
+      <c r="L7" s="12">
+        <f t="shared" ref="L7:P7" si="11">K7+1/1440</f>
         <v>0.86250000000000004</v>
       </c>
-      <c r="K7" s="2">
-        <f t="shared" si="9"/>
+      <c r="M7" s="12">
+        <f t="shared" si="11"/>
         <v>0.86319444444444449</v>
       </c>
-      <c r="L7" s="2">
-        <f t="shared" si="9"/>
+      <c r="N7" s="12">
+        <f t="shared" si="11"/>
         <v>0.86388888888888893</v>
       </c>
-      <c r="M7" s="2">
-        <f t="shared" si="9"/>
+      <c r="O7" s="12">
+        <f t="shared" si="11"/>
         <v>0.86458333333333337</v>
       </c>
-      <c r="N7" s="2">
-        <f t="shared" si="9"/>
+      <c r="P7" s="12">
+        <f t="shared" si="11"/>
         <v>0.86527777777777781</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>0.73263888888888895</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" ref="B8:E8" si="10">A8+1/1440</f>
-        <v>0.73333333333333339</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="10"/>
-        <v>0.73402777777777783</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="10"/>
-        <v>0.73472222222222228</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="10"/>
-        <v>0.73541666666666672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" ref="C8:F8" si="12">B8+1/1440</f>
+        <v>0.84305555555555545</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="12"/>
+        <v>0.84374999999999989</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="12"/>
+        <v>0.84444444444444433</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="12"/>
+        <v>0.84513888888888877</v>
+      </c>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>0.4284722222222222</v>
-      </c>
-      <c r="B10" s="2">
-        <f>A10+1/1440</f>
-        <v>0.42916666666666664</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" ref="C10:E10" si="11">B10+1/1440</f>
-        <v>0.42986111111111108</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="11"/>
-        <v>0.43055555555555552</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="11"/>
-        <v>0.43124999999999997</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="C10" s="12">
+        <f>B10+1/1440</f>
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" ref="D10:F10" si="13">C10+1/1440</f>
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="13"/>
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="13"/>
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="19">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="K10" s="12">
         <v>0.35486111111111113</v>
       </c>
-      <c r="J10" s="2">
-        <f>I10+1/1440</f>
+      <c r="L10" s="12">
+        <f>K10+1/1440</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="K10" s="2">
-        <f t="shared" ref="K10:N10" si="12">J10+1/1440</f>
+      <c r="M10" s="12">
+        <f t="shared" ref="M10:P10" si="14">L10+1/1440</f>
         <v>0.35625000000000001</v>
       </c>
-      <c r="L10" s="2">
-        <f t="shared" si="12"/>
+      <c r="N10" s="12">
+        <f t="shared" si="14"/>
         <v>0.35694444444444445</v>
       </c>
-      <c r="M10" s="2">
-        <f t="shared" si="12"/>
+      <c r="O10" s="12">
+        <f t="shared" si="14"/>
         <v>0.3576388888888889</v>
       </c>
-      <c r="N10" s="2">
-        <f t="shared" si="12"/>
+      <c r="P10" s="12">
+        <f t="shared" si="14"/>
         <v>0.35833333333333334</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="I3:I7">
-    <sortCondition ref="I3"/>
+  <sortState ref="K3:K7">
+    <sortCondition ref="K3"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I1:N1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Расписания/Готовые расписания/Витебская (пов. в част. сектор).xlsx
+++ b/Расписания/Готовые расписания/Витебская (пов. в част. сектор).xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="№1" sheetId="1" r:id="rId1"/>
-    <sheet name="№1 (вых)" sheetId="3" r:id="rId2"/>
+    <sheet name="№1 (вых)" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Витебская (пов. в част. сектор)</t>
   </si>
@@ -38,12 +37,6 @@
   </si>
   <si>
     <t>Витебская (в город)</t>
-  </si>
-  <si>
-    <t>Труда-КЗТШ</t>
-  </si>
-  <si>
-    <t>КЗТШ-Труда</t>
   </si>
   <si>
     <t>вых</t>
@@ -143,22 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -187,6 +167,9 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -467,647 +450,533 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="5.625" customWidth="1"/>
-    <col min="7" max="12" width="5.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="150.15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="G3" s="2">
-        <v>0.30624999999999997</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>0.72430555555555554</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.54583333333333328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0.84236111111111101</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.51111111111111118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0.5708333333333333</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AE1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="5" customWidth="1"/>
-    <col min="2" max="6" width="5.125" style="8" customWidth="1"/>
-    <col min="7" max="8" width="4.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="1.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="5.125" style="5" customWidth="1"/>
-    <col min="11" max="16" width="5.125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="1.625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="5.125" style="5" customWidth="1"/>
-    <col min="19" max="23" width="5.125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="1.625" style="16" customWidth="1"/>
-    <col min="25" max="25" width="5.125" style="5" customWidth="1"/>
-    <col min="26" max="31" width="5.125" style="8" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="6" width="5.125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="4.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="1.625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="5.125" style="1" customWidth="1"/>
+    <col min="11" max="16" width="5.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="1.625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="5.125" style="1" customWidth="1"/>
+    <col min="19" max="23" width="5.125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="1.625" style="11" customWidth="1"/>
+    <col min="25" max="25" width="5.125" style="1" customWidth="1"/>
+    <col min="26" max="31" width="5.125" style="3" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="R1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="K1" s="6" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="Y1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+    </row>
+    <row r="2" spans="1:31" s="6" customFormat="1" ht="139.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="R1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="Y1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-    </row>
-    <row r="2" spans="1:31" s="11" customFormat="1" ht="139.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="Z2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="AA2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="AB2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="AC2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="AD2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="14">
         <v>0.5</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="7">
         <v>0.52430555555555558</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="7">
         <f>B3+1/1440</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="7">
         <f t="shared" ref="D3:F3" si="0">C3+1/1440</f>
         <v>0.52569444444444446</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="7">
         <f t="shared" si="0"/>
         <v>0.52638888888888891</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="7">
         <f t="shared" si="0"/>
         <v>0.52708333333333335</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="J3" s="19">
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="J3" s="14">
         <v>0.30555555555555552</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="7">
         <v>0.30624999999999997</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="7">
         <f>K3+1/1440</f>
         <v>0.30694444444444441</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="7">
         <f t="shared" ref="M3:P3" si="1">L3+1/1440</f>
         <v>0.30763888888888885</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="7">
         <f t="shared" si="1"/>
         <v>0.30833333333333329</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="7">
         <f t="shared" si="1"/>
         <v>0.30902777777777773</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="7">
         <f t="shared" si="1"/>
         <v>0.30972222222222218</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="8">
         <v>0.28472222222222221</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="7">
         <v>0.29583333333333334</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="7">
         <f>S3+1/1440</f>
         <v>0.29652777777777778</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="7">
         <f t="shared" ref="U3:W3" si="2">T3+1/1440</f>
         <v>0.29722222222222222</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="7">
         <f t="shared" si="2"/>
         <v>0.29791666666666666</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="7">
         <f t="shared" si="2"/>
         <v>0.2986111111111111</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="Y3" s="8">
         <v>0.60763888888888895</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="7">
         <v>0.61388888888888882</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="7">
         <f>Z3+1/1440</f>
         <v>0.61458333333333326</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AB3" s="7">
         <f t="shared" ref="AB3:AE3" si="3">AA3+1/1440</f>
         <v>0.6152777777777777</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AC3" s="7">
         <f t="shared" si="3"/>
         <v>0.61597222222222214</v>
       </c>
-      <c r="AD3" s="12">
+      <c r="AD3" s="7">
         <f t="shared" si="3"/>
         <v>0.61666666666666659</v>
       </c>
-      <c r="AE3" s="12">
+      <c r="AE3" s="7">
         <f t="shared" si="3"/>
         <v>0.61736111111111103</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="14">
         <v>0.54861111111111105</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="7">
         <v>0.5708333333333333</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <f t="shared" ref="C4:F4" si="4">B4+1/1440</f>
         <v>0.57152777777777775</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="7">
         <f t="shared" si="4"/>
         <v>0.57222222222222219</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <f t="shared" si="4"/>
         <v>0.57291666666666663</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="7">
         <f t="shared" si="4"/>
         <v>0.57361111111111107</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="14">
         <v>0.31944444444444448</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="7">
         <v>0.32013888888888892</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="7">
         <f t="shared" ref="L4:P4" si="5">K4+1/1440</f>
         <v>0.32083333333333336</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="7">
         <f t="shared" si="5"/>
         <v>0.3215277777777778</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="7">
         <f t="shared" si="5"/>
         <v>0.32222222222222224</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="7">
         <f t="shared" si="5"/>
         <v>0.32291666666666669</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="7">
         <f t="shared" si="5"/>
         <v>0.32361111111111113</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="14">
         <v>0.61111111111111105</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="7">
         <v>0.6333333333333333</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <f t="shared" ref="C5:F5" si="6">B5+1/1440</f>
         <v>0.63402777777777775</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="7">
         <f t="shared" si="6"/>
         <v>0.63472222222222219</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="7">
         <f t="shared" si="6"/>
         <v>0.63541666666666663</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="7">
         <f t="shared" si="6"/>
         <v>0.63611111111111107</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="14">
         <v>0.51041666666666663</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="7">
         <v>0.51111111111111118</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="7">
         <f t="shared" ref="L5:P5" si="7">K5+1/1440</f>
         <v>0.51180555555555562</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="7">
         <f t="shared" si="7"/>
         <v>0.51250000000000007</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="7">
         <f t="shared" si="7"/>
         <v>0.51319444444444451</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="7">
         <f t="shared" si="7"/>
         <v>0.51388888888888895</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="7">
         <f t="shared" si="7"/>
         <v>0.51458333333333339</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="14">
         <v>0.70486111111111116</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="7">
         <v>0.72430555555555554</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="7">
         <f t="shared" ref="C6:F6" si="8">B6+1/1440</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="7">
         <f t="shared" si="8"/>
         <v>0.72569444444444442</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <f t="shared" si="8"/>
         <v>0.72638888888888886</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="7">
         <f t="shared" si="8"/>
         <v>0.7270833333333333</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="14">
         <v>0.54513888888888895</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="7">
         <v>0.54583333333333328</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="7">
         <f t="shared" ref="L6:P6" si="9">K6+1/1440</f>
         <v>0.54652777777777772</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="7">
         <f t="shared" si="9"/>
         <v>0.54722222222222217</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="7">
         <f t="shared" si="9"/>
         <v>0.54791666666666661</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="7">
         <f t="shared" si="9"/>
         <v>0.54861111111111105</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="7">
         <f t="shared" si="9"/>
         <v>0.54930555555555549</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="14">
         <v>0.77777777777777779</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="7">
         <v>0.79999999999999993</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <f t="shared" ref="C7:F7" si="10">B7+1/1440</f>
         <v>0.80069444444444438</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="7">
         <f t="shared" si="10"/>
         <v>0.80138888888888882</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <f t="shared" si="10"/>
         <v>0.80208333333333326</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="7">
         <f t="shared" si="10"/>
         <v>0.8027777777777777</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="14">
         <v>0.86111111111111116</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="7">
         <v>0.8618055555555556</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="7">
         <f t="shared" ref="L7:P7" si="11">K7+1/1440</f>
         <v>0.86250000000000004</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="7">
         <f t="shared" si="11"/>
         <v>0.86319444444444449</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="7">
         <f t="shared" si="11"/>
         <v>0.86388888888888893</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="7">
         <f t="shared" si="11"/>
         <v>0.86458333333333337</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="7">
         <f t="shared" si="11"/>
         <v>0.86527777777777781</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="14">
         <v>0.82291666666666663</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="7">
         <v>0.84236111111111101</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <f t="shared" ref="C8:F8" si="12">B8+1/1440</f>
         <v>0.84305555555555545</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="7">
         <f t="shared" si="12"/>
         <v>0.84374999999999989</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="7">
         <f t="shared" si="12"/>
         <v>0.84444444444444433</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="7">
         <f t="shared" si="12"/>
         <v>0.84513888888888877</v>
       </c>
-      <c r="J8" s="20"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="20"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="14">
         <v>0.46527777777777773</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="7">
         <v>0.48402777777777778</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <f>B10+1/1440</f>
         <v>0.48472222222222222</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="7">
         <f t="shared" ref="D10:F10" si="13">C10+1/1440</f>
         <v>0.48541666666666666</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="7">
         <f t="shared" si="13"/>
         <v>0.4861111111111111</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="7">
         <f t="shared" si="13"/>
         <v>0.48680555555555555</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="14">
         <v>0.35416666666666669</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="7">
         <v>0.35486111111111113</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="7">
         <f>K10+1/1440</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="7">
         <f t="shared" ref="M10:P10" si="14">L10+1/1440</f>
         <v>0.35625000000000001</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="7">
         <f t="shared" si="14"/>
         <v>0.35694444444444445</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="7">
         <f t="shared" si="14"/>
         <v>0.3576388888888889</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="7">
         <f t="shared" si="14"/>
         <v>0.35833333333333334</v>
       </c>
